--- a/20250705wordpressテーマ一覧.xlsx
+++ b/20250705wordpressテーマ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmatsumoto33.IXAS\Box\エイ・エス・ティ\松本\個人メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79AC38B-A5C7-4E84-9E66-54E9FF83B847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CDE3C5-3E81-4D34-A123-B055DFEF7512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="323">
   <si>
     <t>Essentialist</t>
   </si>
@@ -996,13 +996,6 @@
   </si>
   <si>
     <t>Geologist</t>
-  </si>
-  <si>
-    <t>情報</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>テーマ名</t>
@@ -1131,7 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,9 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1431,11 +1421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C317"/>
+  <dimension ref="A1:C318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="3" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.6640625" defaultRowHeight="13.8"/>
@@ -1446,22 +1436,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.2">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" thickBot="1">
-      <c r="A3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" t="s">
         <v>322</v>
-      </c>
-      <c r="C3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.4" thickBot="1">
@@ -1471,9 +1461,6 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" thickBot="1">
       <c r="A5" s="1" t="s">
@@ -4907,337 +4894,339 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" ht="14.4" thickBot="1">
       <c r="A317" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C317" s="3" t="s">
-        <v>319</v>
-      </c>
+      <c r="C317" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="C318" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:C317" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://wordpress.com/theme/patisserie/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://wordpress.com/theme/maizymas/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://wordpress.com/theme/fundio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" display="https://wordpress.com/theme/harmonix/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C8" r:id="rId5" display="https://wordpress.com/theme/xnova/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://wordpress.com/theme/chanson/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://wordpress.com/theme/azur/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://wordpress.com/theme/ici/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C12" r:id="rId9" display="https://wordpress.com/theme/shhh/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://wordpress.com/theme/beep/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C14" r:id="rId11" display="https://wordpress.com/theme/perenne/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C15" r:id="rId12" display="https://wordpress.com/theme/kansei/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C16" r:id="rId13" display="https://wordpress.com/theme/indice/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C17" r:id="rId14" display="https://wordpress.com/theme/xanadu/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C18" r:id="rId15" display="https://wordpress.com/theme/clairevoyant/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C19" r:id="rId16" display="https://wordpress.com/theme/slab/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C20" r:id="rId17" display="https://wordpress.com/theme/modernist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C21" r:id="rId18" display="https://wordpress.com/theme/observer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C22" r:id="rId19" display="https://wordpress.com/theme/hoat/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C23" r:id="rId20" display="https://wordpress.com/theme/roblog/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C24" r:id="rId21" display="https://wordpress.com/theme/memphoria/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C25" r:id="rId22" display="https://wordpress.com/theme/anysell/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C26" r:id="rId23" display="https://wordpress.com/theme/luxe-fashion/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C27" r:id="rId24" display="https://wordpress.com/theme/glowess/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C28" r:id="rId25" display="https://wordpress.com/theme/gotrek/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C29" r:id="rId26" display="https://wordpress.com/theme/sportiq/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C30" r:id="rId27" display="https://wordpress.com/theme/nion/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C31" r:id="rId28" display="https://wordpress.com/theme/retrospect/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C32" r:id="rId29" display="https://wordpress.com/theme/glamorama/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C33" r:id="rId30" display="https://wordpress.com/theme/decorix/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C34" r:id="rId31" display="https://wordpress.com/theme/puplaza/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C35" r:id="rId32" display="https://wordpress.com/theme/dakota-next/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C36" r:id="rId33" display="https://wordpress.com/theme/booknest/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C37" r:id="rId34" display="https://wordpress.com/theme/lexionic/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C38" r:id="rId35" display="https://wordpress.com/theme/timestream/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C39" r:id="rId36" display="https://wordpress.com/theme/grammer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C40" r:id="rId37" display="https://wordpress.com/theme/wp-dos/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C41" r:id="rId38" display="https://wordpress.com/theme/brightblog/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C42" r:id="rId39" display="https://wordpress.com/theme/layover/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C43" r:id="rId40" display="https://wordpress.com/theme/mymenu/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C44" r:id="rId41" display="https://wordpress.com/theme/stitchery/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C45" r:id="rId42" display="https://wordpress.com/theme/outnow/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C46" r:id="rId43" display="https://wordpress.com/theme/inversum/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C47" r:id="rId44" display="https://wordpress.com/theme/vitrum/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C48" r:id="rId45" display="https://wordpress.com/theme/psychedeli/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C49" r:id="rId46" display="https://wordpress.com/theme/leancv/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C50" r:id="rId47" display="https://wordpress.com/theme/eveny/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C51" r:id="rId48" display="https://wordpress.com/theme/dadaist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C52" r:id="rId49" display="https://wordpress.com/theme/koinonia/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C53" r:id="rId50" display="https://wordpress.com/theme/professio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C54" r:id="rId51" display="https://wordpress.com/theme/batch/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C55" r:id="rId52" display="https://wordpress.com/theme/streamer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C56" r:id="rId53" display="https://wordpress.com/theme/vueo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C57" r:id="rId54" display="https://wordpress.com/theme/casthub/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C58" r:id="rId55" display="https://wordpress.com/theme/twentytwentyfive/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C59" r:id="rId56" display="https://wordpress.com/theme/drinkify/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C60" r:id="rId57" display="https://wordpress.com/theme/kiddiemart/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C61" r:id="rId58" display="https://wordpress.com/theme/urbem/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C62" r:id="rId59" display="https://wordpress.com/theme/castcore/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C63" r:id="rId60" display="https://wordpress.com/theme/coachava/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C64" r:id="rId61" display="https://wordpress.com/theme/coachben/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C65" r:id="rId62" display="https://wordpress.com/theme/greenseed/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C66" r:id="rId63" display="https://wordpress.com/theme/aether/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C67" r:id="rId64" display="https://wordpress.com/theme/conference/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C68" r:id="rId65" display="https://wordpress.com/theme/miko/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C69" r:id="rId66" display="https://wordpress.com/theme/aigoo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C70" r:id="rId67" display="https://wordpress.com/theme/mann/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C71" r:id="rId68" display="https://wordpress.com/theme/bain-marie/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C72" r:id="rId69" display="https://wordpress.com/theme/uprising-next/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C73" r:id="rId70" display="https://wordpress.com/theme/vibrrrant/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C74" r:id="rId71" display="https://wordpress.com/theme/dropp/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C75" r:id="rId72" display="https://wordpress.com/theme/tiebreak/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C76" r:id="rId73" display="https://wordpress.com/theme/portfolio-wp-pro/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C77" r:id="rId74" display="https://wordpress.com/theme/kawaii-chan/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C78" r:id="rId75" display="https://wordpress.com/theme/jenn/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C79" r:id="rId76" display="https://wordpress.com/theme/skincues/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C80" r:id="rId77" display="https://wordpress.com/theme/podbase/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C81" r:id="rId78" display="https://wordpress.com/theme/dossier/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C82" r:id="rId79" display="https://wordpress.com/theme/kamala/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C83" r:id="rId80" display="https://wordpress.com/theme/startorg/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C84" r:id="rId81" display="https://wordpress.com/theme/colorloops/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C85" r:id="rId82" display="https://wordpress.com/theme/raconteur/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C86" r:id="rId83" display="https://wordpress.com/theme/colorstream/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C87" r:id="rId84" display="https://wordpress.com/theme/cubico/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C88" r:id="rId85" display="https://wordpress.com/theme/fictionary/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C89" r:id="rId86" display="https://wordpress.com/theme/impressionist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C90" r:id="rId87" display="https://wordpress.com/theme/bysshe/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C91" r:id="rId88" display="https://wordpress.com/theme/musee/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C92" r:id="rId89" display="https://wordpress.com/theme/margarethe/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C93" r:id="rId90" display="https://wordpress.com/theme/the-jazzers/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C94" r:id="rId91" display="https://wordpress.com/theme/massimo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C95" r:id="rId92" display="https://wordpress.com/theme/brute/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C96" r:id="rId93" display="https://wordpress.com/theme/jazzygrid/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C97" r:id="rId94" display="https://wordpress.com/theme/happening/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C98" r:id="rId95" display="https://wordpress.com/theme/sprinkler/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C99" r:id="rId96" display="https://wordpress.com/theme/the-shore/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C100" r:id="rId97" display="https://wordpress.com/theme/adonay/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C101" r:id="rId98" display="https://wordpress.com/theme/promoter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C102" r:id="rId99" display="https://wordpress.com/theme/retrato/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C103" r:id="rId100" display="https://wordpress.com/theme/matrioska/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C104" r:id="rId101" display="https://wordpress.com/theme/pierian/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C105" r:id="rId102" display="https://wordpress.com/theme/feature/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C106" r:id="rId103" display="https://wordpress.com/theme/moviescript/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C107" r:id="rId104" display="https://wordpress.com/theme/titleless/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C108" r:id="rId105" display="https://wordpress.com/theme/message/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C109" r:id="rId106" display="https://wordpress.com/theme/saison/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C110" r:id="rId107" display="https://wordpress.com/theme/fixmate/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C111" r:id="rId108" display="https://wordpress.com/theme/partygurl/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C112" r:id="rId109" display="https://wordpress.com/theme/olympique/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C113" r:id="rId110" display="https://wordpress.com/theme/luxus/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C114" r:id="rId111" display="https://wordpress.com/theme/blissed/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C115" r:id="rId112" display="https://wordpress.com/theme/hola/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C116" r:id="rId113" display="https://wordpress.com/theme/recipebook/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C117" r:id="rId114" display="https://wordpress.com/theme/goodskin/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C118" r:id="rId115" display="https://wordpress.com/theme/cottage/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C119" r:id="rId116" display="https://wordpress.com/theme/bark/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C120" r:id="rId117" display="https://wordpress.com/theme/vows/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C121" r:id="rId118" display="https://wordpress.com/theme/eride/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C122" r:id="rId119" display="https://wordpress.com/theme/onyxpulse/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C123" r:id="rId120" display="https://wordpress.com/theme/dark-academia/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C124" r:id="rId121" display="https://wordpress.com/theme/kiosko/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C125" r:id="rId122" display="https://wordpress.com/theme/surrealist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="C126" r:id="rId123" display="https://wordpress.com/theme/kentwood/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C127" r:id="rId124" display="https://wordpress.com/theme/portia/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C128" r:id="rId125" display="https://wordpress.com/theme/fontaine/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="C129" r:id="rId126" display="https://wordpress.com/theme/swag/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C130" r:id="rId127" display="https://wordpress.com/theme/craftfully/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C131" r:id="rId128" display="https://wordpress.com/theme/ornatedecor/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C132" r:id="rId129" display="https://wordpress.com/theme/infield/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C133" r:id="rId130" display="https://wordpress.com/theme/feelingood/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C134" r:id="rId131" display="https://wordpress.com/theme/lowfi/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="C135" r:id="rId132" display="https://wordpress.com/theme/cakely/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C136" r:id="rId133" display="https://wordpress.com/theme/pizzeria/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C137" r:id="rId134" display="https://wordpress.com/theme/alleyoop/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C138" r:id="rId135" display="https://wordpress.com/theme/nook/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C139" r:id="rId136" display="https://wordpress.com/theme/treehouse/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C140" r:id="rId137" display="https://wordpress.com/theme/highline/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C141" r:id="rId138" display="https://wordpress.com/theme/bedrock/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C142" r:id="rId139" display="https://wordpress.com/theme/strand/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C143" r:id="rId140" display="https://wordpress.com/theme/fuel/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C144" r:id="rId141" display="https://wordpress.com/theme/allez/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C145" r:id="rId142" display="https://wordpress.com/theme/spiel/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C146" r:id="rId143" display="https://wordpress.com/theme/eben/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C147" r:id="rId144" display="https://wordpress.com/theme/bookix/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="C148" r:id="rId145" display="https://wordpress.com/theme/assembler/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C149" r:id="rId146" display="https://wordpress.com/theme/annalee/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="C150" r:id="rId147" display="https://wordpress.com/theme/kaze/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C151" r:id="rId148" display="https://wordpress.com/theme/epi/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C152" r:id="rId149" display="https://wordpress.com/theme/mysa/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C153" r:id="rId150" display="https://wordpress.com/theme/pomme/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="C154" r:id="rId151" display="https://wordpress.com/theme/recurring/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="C155" r:id="rId152" display="https://wordpress.com/theme/heim/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="C156" r:id="rId153" display="https://wordpress.com/theme/course/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C157" r:id="rId154" display="https://wordpress.com/theme/twentytwentyfour/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="C158" r:id="rId155" display="https://wordpress.com/theme/hevor/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C159" r:id="rId156" display="https://wordpress.com/theme/tronar/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C160" r:id="rId157" display="https://wordpress.com/theme/roam/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C161" r:id="rId158" display="https://wordpress.com/theme/blockstar/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="C162" r:id="rId159" display="https://wordpress.com/theme/sunderland/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="C163" r:id="rId160" display="https://wordpress.com/theme/foam/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="C164" r:id="rId161" display="https://wordpress.com/theme/startace/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C165" r:id="rId162" display="https://wordpress.com/theme/alter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="C166" r:id="rId163" display="https://wordpress.com/theme/podcasty/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C167" r:id="rId164" display="https://wordpress.com/theme/deco/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="C168" r:id="rId165" display="https://wordpress.com/theme/carnation/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C169" r:id="rId166" display="https://wordpress.com/theme/outland/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="C170" r:id="rId167" display="https://wordpress.com/theme/kereta/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C171" r:id="rId168" display="https://wordpress.com/theme/peirao/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="C172" r:id="rId169" display="https://wordpress.com/theme/creatio-2/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="C173" r:id="rId170" display="https://wordpress.com/theme/startfitter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C174" r:id="rId171" display="https://wordpress.com/theme/greenstead/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="C175" r:id="rId172" display="https://wordpress.com/theme/gourmetto/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C176" r:id="rId173" display="https://wordpress.com/theme/enroute/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="C177" r:id="rId174" display="https://wordpress.com/theme/tenku/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="C178" r:id="rId175" display="https://wordpress.com/theme/smithland/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C179" r:id="rId176" display="https://wordpress.com/theme/luce/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="C180" r:id="rId177" display="https://wordpress.com/theme/everglow/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C181" r:id="rId178" display="https://wordpress.com/theme/emart/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C182" r:id="rId179" display="https://wordpress.com/theme/freshcart/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C183" r:id="rId180" display="https://wordpress.com/theme/kedai/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C184" r:id="rId181" display="https://wordpress.com/theme/dawson/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C185" r:id="rId182" display="https://wordpress.com/theme/ron/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C186" r:id="rId183" display="https://wordpress.com/theme/snd/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C187" r:id="rId184" display="https://wordpress.com/theme/vivid/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C188" r:id="rId185" display="https://wordpress.com/theme/olsen-fse/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C189" r:id="rId186" display="https://wordpress.com/theme/cortado/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C190" r:id="rId187" display="https://wordpress.com/theme/mpho/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C191" r:id="rId188" display="https://wordpress.com/theme/lativ/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C192" r:id="rId189" display="https://wordpress.com/theme/ethreadwears/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C193" r:id="rId190" display="https://wordpress.com/theme/reverie/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C194" r:id="rId191" display="https://wordpress.com/theme/entry/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C195" r:id="rId192" display="https://wordpress.com/theme/didone/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C196" r:id="rId193" display="https://wordpress.com/theme/luminance/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C197" r:id="rId194" display="https://wordpress.com/theme/artly/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C198" r:id="rId195" display="https://wordpress.com/theme/common/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C199" r:id="rId196" display="https://wordpress.com/theme/covr/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C200" r:id="rId197" display="https://wordpress.com/theme/erma/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C201" r:id="rId198" display="https://wordpress.com/theme/fewer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C202" r:id="rId199" display="https://wordpress.com/theme/fotograma/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C203" r:id="rId200" display="https://wordpress.com/theme/bibliophile/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C204" r:id="rId201" display="https://wordpress.com/theme/poesis/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C205" r:id="rId202" display="https://wordpress.com/theme/jaida/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C206" r:id="rId203" display="https://wordpress.com/theme/sten/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C207" r:id="rId204" display="https://wordpress.com/theme/bute/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C208" r:id="rId205" display="https://wordpress.com/theme/freddie/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="C209" r:id="rId206" display="https://wordpress.com/theme/negai/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C210" r:id="rId207" display="https://wordpress.com/theme/trellick/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C211" r:id="rId208" display="https://wordpress.com/theme/tomoni/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C212" r:id="rId209" display="https://wordpress.com/theme/jinjang/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C213" r:id="rId210" display="https://wordpress.com/theme/optimismo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C214" r:id="rId211" display="https://wordpress.com/theme/kigen/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C215" r:id="rId212" display="https://wordpress.com/theme/bsoj/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C216" r:id="rId213" display="https://wordpress.com/theme/lineup/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C217" r:id="rId214" display="https://wordpress.com/theme/otis/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C218" r:id="rId215" display="https://wordpress.com/theme/loic/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C219" r:id="rId216" display="https://wordpress.com/theme/apparel/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="C220" r:id="rId217" display="https://wordpress.com/theme/labeaute/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C221" r:id="rId218" display="https://wordpress.com/theme/copenhagen/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="C222" r:id="rId219" display="https://wordpress.com/theme/blissful/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C223" r:id="rId220" display="https://wordpress.com/theme/restoration/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C224" r:id="rId221" display="https://wordpress.com/theme/overline/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C225" r:id="rId222" display="https://wordpress.com/theme/blooms/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C226" r:id="rId223" display="https://wordpress.com/theme/ueno/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C227" r:id="rId224" display="https://wordpress.com/theme/elaventa/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C228" r:id="rId225" display="https://wordpress.com/theme/carter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C229" r:id="rId226" display="https://wordpress.com/theme/arquio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C230" r:id="rId227" display="https://wordpress.com/theme/bespoke/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C231" r:id="rId228" display="https://wordpress.com/theme/george-lois/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="C232" r:id="rId229" display="https://wordpress.com/theme/storia/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C233" r:id="rId230" display="https://wordpress.com/theme/archivo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C234" r:id="rId231" display="https://wordpress.com/theme/poema/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C235" r:id="rId232" display="https://wordpress.com/theme/iotix/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C236" r:id="rId233" display="https://wordpress.com/theme/bibimbap/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C237" r:id="rId234" display="https://wordpress.com/theme/organic-chrono/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C238" r:id="rId235" display="https://wordpress.com/theme/olymp/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C239" r:id="rId236" display="https://wordpress.com/theme/bass/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="C240" r:id="rId237" display="https://wordpress.com/theme/vignette/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C241" r:id="rId238" display="https://wordpress.com/theme/epentatonic/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="C242" r:id="rId239" display="https://wordpress.com/theme/folio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C243" r:id="rId240" display="https://wordpress.com/theme/artistry/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C244" r:id="rId241" display="https://wordpress.com/theme/organic-rialto/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C245" r:id="rId242" display="https://wordpress.com/theme/miniature/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="C246" r:id="rId243" display="https://wordpress.com/theme/rhodes/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C247" r:id="rId244" display="https://wordpress.com/theme/amulet/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="C248" r:id="rId245" display="https://wordpress.com/theme/hey/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C249" r:id="rId246" display="https://wordpress.com/theme/ctlg/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="C250" r:id="rId247" display="https://wordpress.com/theme/paimio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C251" r:id="rId248" display="https://wordpress.com/theme/bagberry/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="C252" r:id="rId249" display="https://wordpress.com/theme/macchiato/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="C253" r:id="rId250" display="https://wordpress.com/theme/wardrobe/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="C254" r:id="rId251" display="https://wordpress.com/theme/luminate/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C255" r:id="rId252" display="https://wordpress.com/theme/gizmo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="C256" r:id="rId253" display="https://wordpress.com/theme/vastra/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="C257" r:id="rId254" display="https://wordpress.com/theme/adventurer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="C258" r:id="rId255" display="https://wordpress.com/theme/lincoln/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="C259" r:id="rId256" display="https://wordpress.com/theme/yuna/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="C260" r:id="rId257" display="https://wordpress.com/theme/avalon/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="C261" r:id="rId258" display="https://wordpress.com/theme/photographer-block/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="C262" r:id="rId259" display="https://wordpress.com/theme/organic-stax/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="C263" r:id="rId260" display="https://wordpress.com/theme/natural-block/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="C264" r:id="rId261" display="https://wordpress.com/theme/waverly/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="C265" r:id="rId262" display="https://wordpress.com/theme/bricksy-pro/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="C266" r:id="rId263" display="https://wordpress.com/theme/restaurant-block/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="C267" r:id="rId264" display="https://wordpress.com/theme/bitacora/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="C268" r:id="rId265" display="https://wordpress.com/theme/basti/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="C269" r:id="rId266" display="https://wordpress.com/theme/solarone/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="C270" r:id="rId267" display="https://wordpress.com/theme/mugistore/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="C271" r:id="rId268" display="https://wordpress.com/theme/zaino/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="C272" r:id="rId269" display="https://wordpress.com/theme/makoney/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="C273" r:id="rId270" display="https://wordpress.com/theme/tu/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="C274" r:id="rId271" display="https://wordpress.com/theme/loudness/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="C275" r:id="rId272" display="https://wordpress.com/theme/muscat/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="C276" r:id="rId273" display="https://wordpress.com/theme/twentytwentythree/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="C277" r:id="rId274" display="https://wordpress.com/theme/calyx/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="C278" r:id="rId275" display="https://wordpress.com/theme/tazza/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="C279" r:id="rId276" display="https://wordpress.com/theme/masu/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="C280" r:id="rId277" display="https://wordpress.com/theme/spearhead-blocks/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="C281" r:id="rId278" display="https://wordpress.com/theme/pixl/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="C282" r:id="rId279" display="https://wordpress.com/theme/tsubaki/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="C283" r:id="rId280" display="https://wordpress.com/theme/rainfall/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="C284" r:id="rId281" display="https://wordpress.com/theme/varese/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="C285" r:id="rId282" display="https://wordpress.com/theme/thriving-artist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="C286" r:id="rId283" display="https://wordpress.com/theme/munchies/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="C287" r:id="rId284" display="https://wordpress.com/theme/yuga/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="C288" r:id="rId285" display="https://wordpress.com/theme/disco/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="C289" r:id="rId286" display="https://wordpress.com/theme/lettre/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="C290" r:id="rId287" display="https://wordpress.com/theme/cultivate/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="C291" r:id="rId288" display="https://wordpress.com/theme/vivre/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="C292" r:id="rId289" display="https://wordpress.com/theme/pendant/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="C293" r:id="rId290" display="https://wordpress.com/theme/remote/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="C294" r:id="rId291" display="https://wordpress.com/theme/archeo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="C295" r:id="rId292" display="https://wordpress.com/theme/skatepark/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="C296" r:id="rId293" display="https://wordpress.com/theme/marl/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="C297" r:id="rId294" display="https://wordpress.com/theme/attar/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="C298" r:id="rId295" display="https://wordpress.com/theme/winkel/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="C299" r:id="rId296" display="https://wordpress.com/theme/videomaker-white/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="C300" r:id="rId297" display="https://wordpress.com/theme/twentytwentytwo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="C301" r:id="rId298" display="https://wordpress.com/theme/stewart/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="C302" r:id="rId299" display="https://wordpress.com/theme/videomaker/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="C303" r:id="rId300" display="https://wordpress.com/theme/livro/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="C304" r:id="rId301" display="https://wordpress.com/theme/skivers/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="C305" r:id="rId302" display="https://wordpress.com/theme/byrne/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="C306" r:id="rId303" display="https://wordpress.com/theme/payton/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="C307" r:id="rId304" display="https://wordpress.com/theme/baxter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="C308" r:id="rId305" display="https://wordpress.com/theme/kerr/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="C309" r:id="rId306" display="https://wordpress.com/theme/jackson/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="C310" r:id="rId307" display="https://wordpress.com/theme/twentytwentytwo-swiss/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="C311" r:id="rId308" display="https://wordpress.com/theme/arbutus/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="C312" r:id="rId309" display="https://wordpress.com/theme/geologist-cream/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="C313" r:id="rId310" display="https://wordpress.com/theme/russell/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="C314" r:id="rId311" display="https://wordpress.com/theme/zoologist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="C315" r:id="rId312" display="https://wordpress.com/theme/quadrat/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="C316" r:id="rId313" display="https://wordpress.com/theme/geologist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="C317" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://wordpress.com/theme/patisserie/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://wordpress.com/theme/maizymas/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://wordpress.com/theme/fundio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://wordpress.com/theme/harmonix/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" display="https://wordpress.com/theme/xnova/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://wordpress.com/theme/chanson/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" display="https://wordpress.com/theme/azur/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://wordpress.com/theme/ici/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" display="https://wordpress.com/theme/shhh/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://wordpress.com/theme/beep/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" display="https://wordpress.com/theme/perenne/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" display="https://wordpress.com/theme/kansei/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" display="https://wordpress.com/theme/indice/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" display="https://wordpress.com/theme/xanadu/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId15" display="https://wordpress.com/theme/clairevoyant/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C20" r:id="rId16" display="https://wordpress.com/theme/slab/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C21" r:id="rId17" display="https://wordpress.com/theme/modernist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C22" r:id="rId18" display="https://wordpress.com/theme/observer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C23" r:id="rId19" display="https://wordpress.com/theme/hoat/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C24" r:id="rId20" display="https://wordpress.com/theme/roblog/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C25" r:id="rId21" display="https://wordpress.com/theme/memphoria/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C26" r:id="rId22" display="https://wordpress.com/theme/anysell/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C27" r:id="rId23" display="https://wordpress.com/theme/luxe-fashion/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C28" r:id="rId24" display="https://wordpress.com/theme/glowess/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C29" r:id="rId25" display="https://wordpress.com/theme/gotrek/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C30" r:id="rId26" display="https://wordpress.com/theme/sportiq/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C31" r:id="rId27" display="https://wordpress.com/theme/nion/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C32" r:id="rId28" display="https://wordpress.com/theme/retrospect/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C33" r:id="rId29" display="https://wordpress.com/theme/glamorama/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C34" r:id="rId30" display="https://wordpress.com/theme/decorix/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C35" r:id="rId31" display="https://wordpress.com/theme/puplaza/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C36" r:id="rId32" display="https://wordpress.com/theme/dakota-next/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C37" r:id="rId33" display="https://wordpress.com/theme/booknest/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C38" r:id="rId34" display="https://wordpress.com/theme/lexionic/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C39" r:id="rId35" display="https://wordpress.com/theme/timestream/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C40" r:id="rId36" display="https://wordpress.com/theme/grammer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C41" r:id="rId37" display="https://wordpress.com/theme/wp-dos/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C42" r:id="rId38" display="https://wordpress.com/theme/brightblog/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C43" r:id="rId39" display="https://wordpress.com/theme/layover/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C44" r:id="rId40" display="https://wordpress.com/theme/mymenu/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C45" r:id="rId41" display="https://wordpress.com/theme/stitchery/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C46" r:id="rId42" display="https://wordpress.com/theme/outnow/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C47" r:id="rId43" display="https://wordpress.com/theme/inversum/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C48" r:id="rId44" display="https://wordpress.com/theme/vitrum/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C49" r:id="rId45" display="https://wordpress.com/theme/psychedeli/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C50" r:id="rId46" display="https://wordpress.com/theme/leancv/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C51" r:id="rId47" display="https://wordpress.com/theme/eveny/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C52" r:id="rId48" display="https://wordpress.com/theme/dadaist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C53" r:id="rId49" display="https://wordpress.com/theme/koinonia/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C54" r:id="rId50" display="https://wordpress.com/theme/professio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C55" r:id="rId51" display="https://wordpress.com/theme/batch/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C56" r:id="rId52" display="https://wordpress.com/theme/streamer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C57" r:id="rId53" display="https://wordpress.com/theme/vueo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C58" r:id="rId54" display="https://wordpress.com/theme/casthub/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C59" r:id="rId55" display="https://wordpress.com/theme/twentytwentyfive/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C60" r:id="rId56" display="https://wordpress.com/theme/drinkify/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C61" r:id="rId57" display="https://wordpress.com/theme/kiddiemart/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C62" r:id="rId58" display="https://wordpress.com/theme/urbem/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C63" r:id="rId59" display="https://wordpress.com/theme/castcore/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C64" r:id="rId60" display="https://wordpress.com/theme/coachava/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C65" r:id="rId61" display="https://wordpress.com/theme/coachben/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C66" r:id="rId62" display="https://wordpress.com/theme/greenseed/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C67" r:id="rId63" display="https://wordpress.com/theme/aether/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C68" r:id="rId64" display="https://wordpress.com/theme/conference/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C69" r:id="rId65" display="https://wordpress.com/theme/miko/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C70" r:id="rId66" display="https://wordpress.com/theme/aigoo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C71" r:id="rId67" display="https://wordpress.com/theme/mann/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C72" r:id="rId68" display="https://wordpress.com/theme/bain-marie/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C73" r:id="rId69" display="https://wordpress.com/theme/uprising-next/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C74" r:id="rId70" display="https://wordpress.com/theme/vibrrrant/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C75" r:id="rId71" display="https://wordpress.com/theme/dropp/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C76" r:id="rId72" display="https://wordpress.com/theme/tiebreak/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C77" r:id="rId73" display="https://wordpress.com/theme/portfolio-wp-pro/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C78" r:id="rId74" display="https://wordpress.com/theme/kawaii-chan/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C79" r:id="rId75" display="https://wordpress.com/theme/jenn/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C80" r:id="rId76" display="https://wordpress.com/theme/skincues/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C81" r:id="rId77" display="https://wordpress.com/theme/podbase/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C82" r:id="rId78" display="https://wordpress.com/theme/dossier/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C83" r:id="rId79" display="https://wordpress.com/theme/kamala/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C84" r:id="rId80" display="https://wordpress.com/theme/startorg/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C85" r:id="rId81" display="https://wordpress.com/theme/colorloops/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C86" r:id="rId82" display="https://wordpress.com/theme/raconteur/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C87" r:id="rId83" display="https://wordpress.com/theme/colorstream/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C88" r:id="rId84" display="https://wordpress.com/theme/cubico/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C89" r:id="rId85" display="https://wordpress.com/theme/fictionary/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C90" r:id="rId86" display="https://wordpress.com/theme/impressionist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C91" r:id="rId87" display="https://wordpress.com/theme/bysshe/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C92" r:id="rId88" display="https://wordpress.com/theme/musee/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C93" r:id="rId89" display="https://wordpress.com/theme/margarethe/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C94" r:id="rId90" display="https://wordpress.com/theme/the-jazzers/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C95" r:id="rId91" display="https://wordpress.com/theme/massimo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C96" r:id="rId92" display="https://wordpress.com/theme/brute/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C97" r:id="rId93" display="https://wordpress.com/theme/jazzygrid/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C98" r:id="rId94" display="https://wordpress.com/theme/happening/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C99" r:id="rId95" display="https://wordpress.com/theme/sprinkler/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C100" r:id="rId96" display="https://wordpress.com/theme/the-shore/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C101" r:id="rId97" display="https://wordpress.com/theme/adonay/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C102" r:id="rId98" display="https://wordpress.com/theme/promoter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C103" r:id="rId99" display="https://wordpress.com/theme/retrato/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C104" r:id="rId100" display="https://wordpress.com/theme/matrioska/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C105" r:id="rId101" display="https://wordpress.com/theme/pierian/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C106" r:id="rId102" display="https://wordpress.com/theme/feature/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C107" r:id="rId103" display="https://wordpress.com/theme/moviescript/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C108" r:id="rId104" display="https://wordpress.com/theme/titleless/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C109" r:id="rId105" display="https://wordpress.com/theme/message/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C110" r:id="rId106" display="https://wordpress.com/theme/saison/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C111" r:id="rId107" display="https://wordpress.com/theme/fixmate/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C112" r:id="rId108" display="https://wordpress.com/theme/partygurl/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C113" r:id="rId109" display="https://wordpress.com/theme/olympique/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C114" r:id="rId110" display="https://wordpress.com/theme/luxus/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C115" r:id="rId111" display="https://wordpress.com/theme/blissed/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C116" r:id="rId112" display="https://wordpress.com/theme/hola/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C117" r:id="rId113" display="https://wordpress.com/theme/recipebook/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C118" r:id="rId114" display="https://wordpress.com/theme/goodskin/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C119" r:id="rId115" display="https://wordpress.com/theme/cottage/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C120" r:id="rId116" display="https://wordpress.com/theme/bark/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C121" r:id="rId117" display="https://wordpress.com/theme/vows/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C122" r:id="rId118" display="https://wordpress.com/theme/eride/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C123" r:id="rId119" display="https://wordpress.com/theme/onyxpulse/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C124" r:id="rId120" display="https://wordpress.com/theme/dark-academia/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C125" r:id="rId121" display="https://wordpress.com/theme/kiosko/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C126" r:id="rId122" display="https://wordpress.com/theme/surrealist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C127" r:id="rId123" display="https://wordpress.com/theme/kentwood/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C128" r:id="rId124" display="https://wordpress.com/theme/portia/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C129" r:id="rId125" display="https://wordpress.com/theme/fontaine/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C130" r:id="rId126" display="https://wordpress.com/theme/swag/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C131" r:id="rId127" display="https://wordpress.com/theme/craftfully/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C132" r:id="rId128" display="https://wordpress.com/theme/ornatedecor/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C133" r:id="rId129" display="https://wordpress.com/theme/infield/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C134" r:id="rId130" display="https://wordpress.com/theme/feelingood/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C135" r:id="rId131" display="https://wordpress.com/theme/lowfi/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C136" r:id="rId132" display="https://wordpress.com/theme/cakely/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C137" r:id="rId133" display="https://wordpress.com/theme/pizzeria/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C138" r:id="rId134" display="https://wordpress.com/theme/alleyoop/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C139" r:id="rId135" display="https://wordpress.com/theme/nook/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C140" r:id="rId136" display="https://wordpress.com/theme/treehouse/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C141" r:id="rId137" display="https://wordpress.com/theme/highline/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C142" r:id="rId138" display="https://wordpress.com/theme/bedrock/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C143" r:id="rId139" display="https://wordpress.com/theme/strand/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C144" r:id="rId140" display="https://wordpress.com/theme/fuel/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C145" r:id="rId141" display="https://wordpress.com/theme/allez/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C146" r:id="rId142" display="https://wordpress.com/theme/spiel/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C147" r:id="rId143" display="https://wordpress.com/theme/eben/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C148" r:id="rId144" display="https://wordpress.com/theme/bookix/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C149" r:id="rId145" display="https://wordpress.com/theme/assembler/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C150" r:id="rId146" display="https://wordpress.com/theme/annalee/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C151" r:id="rId147" display="https://wordpress.com/theme/kaze/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C152" r:id="rId148" display="https://wordpress.com/theme/epi/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C153" r:id="rId149" display="https://wordpress.com/theme/mysa/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C154" r:id="rId150" display="https://wordpress.com/theme/pomme/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C155" r:id="rId151" display="https://wordpress.com/theme/recurring/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C156" r:id="rId152" display="https://wordpress.com/theme/heim/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C157" r:id="rId153" display="https://wordpress.com/theme/course/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C158" r:id="rId154" display="https://wordpress.com/theme/twentytwentyfour/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C159" r:id="rId155" display="https://wordpress.com/theme/hevor/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C160" r:id="rId156" display="https://wordpress.com/theme/tronar/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C161" r:id="rId157" display="https://wordpress.com/theme/roam/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C162" r:id="rId158" display="https://wordpress.com/theme/blockstar/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C163" r:id="rId159" display="https://wordpress.com/theme/sunderland/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C164" r:id="rId160" display="https://wordpress.com/theme/foam/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C165" r:id="rId161" display="https://wordpress.com/theme/startace/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C166" r:id="rId162" display="https://wordpress.com/theme/alter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C167" r:id="rId163" display="https://wordpress.com/theme/podcasty/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C168" r:id="rId164" display="https://wordpress.com/theme/deco/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C169" r:id="rId165" display="https://wordpress.com/theme/carnation/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C170" r:id="rId166" display="https://wordpress.com/theme/outland/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C171" r:id="rId167" display="https://wordpress.com/theme/kereta/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C172" r:id="rId168" display="https://wordpress.com/theme/peirao/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C173" r:id="rId169" display="https://wordpress.com/theme/creatio-2/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C174" r:id="rId170" display="https://wordpress.com/theme/startfitter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C175" r:id="rId171" display="https://wordpress.com/theme/greenstead/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C176" r:id="rId172" display="https://wordpress.com/theme/gourmetto/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C177" r:id="rId173" display="https://wordpress.com/theme/enroute/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C178" r:id="rId174" display="https://wordpress.com/theme/tenku/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C179" r:id="rId175" display="https://wordpress.com/theme/smithland/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C180" r:id="rId176" display="https://wordpress.com/theme/luce/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C181" r:id="rId177" display="https://wordpress.com/theme/everglow/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C182" r:id="rId178" display="https://wordpress.com/theme/emart/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C183" r:id="rId179" display="https://wordpress.com/theme/freshcart/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C184" r:id="rId180" display="https://wordpress.com/theme/kedai/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C185" r:id="rId181" display="https://wordpress.com/theme/dawson/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C186" r:id="rId182" display="https://wordpress.com/theme/ron/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C187" r:id="rId183" display="https://wordpress.com/theme/snd/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C188" r:id="rId184" display="https://wordpress.com/theme/vivid/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C189" r:id="rId185" display="https://wordpress.com/theme/olsen-fse/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C190" r:id="rId186" display="https://wordpress.com/theme/cortado/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C191" r:id="rId187" display="https://wordpress.com/theme/mpho/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C192" r:id="rId188" display="https://wordpress.com/theme/lativ/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C193" r:id="rId189" display="https://wordpress.com/theme/ethreadwears/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C194" r:id="rId190" display="https://wordpress.com/theme/reverie/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C195" r:id="rId191" display="https://wordpress.com/theme/entry/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C196" r:id="rId192" display="https://wordpress.com/theme/didone/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C197" r:id="rId193" display="https://wordpress.com/theme/luminance/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C198" r:id="rId194" display="https://wordpress.com/theme/artly/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C199" r:id="rId195" display="https://wordpress.com/theme/common/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C200" r:id="rId196" display="https://wordpress.com/theme/covr/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C201" r:id="rId197" display="https://wordpress.com/theme/erma/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C202" r:id="rId198" display="https://wordpress.com/theme/fewer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C203" r:id="rId199" display="https://wordpress.com/theme/fotograma/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C204" r:id="rId200" display="https://wordpress.com/theme/bibliophile/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C205" r:id="rId201" display="https://wordpress.com/theme/poesis/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C206" r:id="rId202" display="https://wordpress.com/theme/jaida/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C207" r:id="rId203" display="https://wordpress.com/theme/sten/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C208" r:id="rId204" display="https://wordpress.com/theme/bute/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C209" r:id="rId205" display="https://wordpress.com/theme/freddie/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C210" r:id="rId206" display="https://wordpress.com/theme/negai/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C211" r:id="rId207" display="https://wordpress.com/theme/trellick/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C212" r:id="rId208" display="https://wordpress.com/theme/tomoni/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C213" r:id="rId209" display="https://wordpress.com/theme/jinjang/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C214" r:id="rId210" display="https://wordpress.com/theme/optimismo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C215" r:id="rId211" display="https://wordpress.com/theme/kigen/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C216" r:id="rId212" display="https://wordpress.com/theme/bsoj/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C217" r:id="rId213" display="https://wordpress.com/theme/lineup/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C218" r:id="rId214" display="https://wordpress.com/theme/otis/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C219" r:id="rId215" display="https://wordpress.com/theme/loic/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C220" r:id="rId216" display="https://wordpress.com/theme/apparel/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C221" r:id="rId217" display="https://wordpress.com/theme/labeaute/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C222" r:id="rId218" display="https://wordpress.com/theme/copenhagen/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C223" r:id="rId219" display="https://wordpress.com/theme/blissful/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C224" r:id="rId220" display="https://wordpress.com/theme/restoration/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C225" r:id="rId221" display="https://wordpress.com/theme/overline/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C226" r:id="rId222" display="https://wordpress.com/theme/blooms/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C227" r:id="rId223" display="https://wordpress.com/theme/ueno/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C228" r:id="rId224" display="https://wordpress.com/theme/elaventa/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C229" r:id="rId225" display="https://wordpress.com/theme/carter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C230" r:id="rId226" display="https://wordpress.com/theme/arquio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C231" r:id="rId227" display="https://wordpress.com/theme/bespoke/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C232" r:id="rId228" display="https://wordpress.com/theme/george-lois/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C233" r:id="rId229" display="https://wordpress.com/theme/storia/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C234" r:id="rId230" display="https://wordpress.com/theme/archivo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C235" r:id="rId231" display="https://wordpress.com/theme/poema/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C236" r:id="rId232" display="https://wordpress.com/theme/iotix/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C237" r:id="rId233" display="https://wordpress.com/theme/bibimbap/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C238" r:id="rId234" display="https://wordpress.com/theme/organic-chrono/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C239" r:id="rId235" display="https://wordpress.com/theme/olymp/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C240" r:id="rId236" display="https://wordpress.com/theme/bass/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C241" r:id="rId237" display="https://wordpress.com/theme/vignette/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C242" r:id="rId238" display="https://wordpress.com/theme/epentatonic/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C243" r:id="rId239" display="https://wordpress.com/theme/folio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C244" r:id="rId240" display="https://wordpress.com/theme/artistry/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C245" r:id="rId241" display="https://wordpress.com/theme/organic-rialto/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C246" r:id="rId242" display="https://wordpress.com/theme/miniature/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C247" r:id="rId243" display="https://wordpress.com/theme/rhodes/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C248" r:id="rId244" display="https://wordpress.com/theme/amulet/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C249" r:id="rId245" display="https://wordpress.com/theme/hey/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C250" r:id="rId246" display="https://wordpress.com/theme/ctlg/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C251" r:id="rId247" display="https://wordpress.com/theme/paimio/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C252" r:id="rId248" display="https://wordpress.com/theme/bagberry/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C253" r:id="rId249" display="https://wordpress.com/theme/macchiato/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C254" r:id="rId250" display="https://wordpress.com/theme/wardrobe/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C255" r:id="rId251" display="https://wordpress.com/theme/luminate/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C256" r:id="rId252" display="https://wordpress.com/theme/gizmo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C257" r:id="rId253" display="https://wordpress.com/theme/vastra/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C258" r:id="rId254" display="https://wordpress.com/theme/adventurer/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C259" r:id="rId255" display="https://wordpress.com/theme/lincoln/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C260" r:id="rId256" display="https://wordpress.com/theme/yuna/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C261" r:id="rId257" display="https://wordpress.com/theme/avalon/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C262" r:id="rId258" display="https://wordpress.com/theme/photographer-block/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C263" r:id="rId259" display="https://wordpress.com/theme/organic-stax/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C264" r:id="rId260" display="https://wordpress.com/theme/natural-block/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C265" r:id="rId261" display="https://wordpress.com/theme/waverly/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C266" r:id="rId262" display="https://wordpress.com/theme/bricksy-pro/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C267" r:id="rId263" display="https://wordpress.com/theme/restaurant-block/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C268" r:id="rId264" display="https://wordpress.com/theme/bitacora/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C269" r:id="rId265" display="https://wordpress.com/theme/basti/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C270" r:id="rId266" display="https://wordpress.com/theme/solarone/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C271" r:id="rId267" display="https://wordpress.com/theme/mugistore/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C272" r:id="rId268" display="https://wordpress.com/theme/zaino/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C273" r:id="rId269" display="https://wordpress.com/theme/makoney/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C274" r:id="rId270" display="https://wordpress.com/theme/tu/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C275" r:id="rId271" display="https://wordpress.com/theme/loudness/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C276" r:id="rId272" display="https://wordpress.com/theme/muscat/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C277" r:id="rId273" display="https://wordpress.com/theme/twentytwentythree/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C278" r:id="rId274" display="https://wordpress.com/theme/calyx/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C279" r:id="rId275" display="https://wordpress.com/theme/tazza/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C280" r:id="rId276" display="https://wordpress.com/theme/masu/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C281" r:id="rId277" display="https://wordpress.com/theme/spearhead-blocks/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C282" r:id="rId278" display="https://wordpress.com/theme/pixl/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C283" r:id="rId279" display="https://wordpress.com/theme/tsubaki/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C284" r:id="rId280" display="https://wordpress.com/theme/rainfall/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C285" r:id="rId281" display="https://wordpress.com/theme/varese/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C286" r:id="rId282" display="https://wordpress.com/theme/thriving-artist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C287" r:id="rId283" display="https://wordpress.com/theme/munchies/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C288" r:id="rId284" display="https://wordpress.com/theme/yuga/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C289" r:id="rId285" display="https://wordpress.com/theme/disco/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C290" r:id="rId286" display="https://wordpress.com/theme/lettre/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C291" r:id="rId287" display="https://wordpress.com/theme/cultivate/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C292" r:id="rId288" display="https://wordpress.com/theme/vivre/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C293" r:id="rId289" display="https://wordpress.com/theme/pendant/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C294" r:id="rId290" display="https://wordpress.com/theme/remote/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C295" r:id="rId291" display="https://wordpress.com/theme/archeo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C296" r:id="rId292" display="https://wordpress.com/theme/skatepark/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C297" r:id="rId293" display="https://wordpress.com/theme/marl/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C298" r:id="rId294" display="https://wordpress.com/theme/attar/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C299" r:id="rId295" display="https://wordpress.com/theme/winkel/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C300" r:id="rId296" display="https://wordpress.com/theme/videomaker-white/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C301" r:id="rId297" display="https://wordpress.com/theme/twentytwentytwo/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C302" r:id="rId298" display="https://wordpress.com/theme/stewart/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C303" r:id="rId299" display="https://wordpress.com/theme/videomaker/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C304" r:id="rId300" display="https://wordpress.com/theme/livro/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C305" r:id="rId301" display="https://wordpress.com/theme/skivers/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C306" r:id="rId302" display="https://wordpress.com/theme/byrne/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C307" r:id="rId303" display="https://wordpress.com/theme/payton/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C308" r:id="rId304" display="https://wordpress.com/theme/baxter/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C309" r:id="rId305" display="https://wordpress.com/theme/kerr/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C310" r:id="rId306" display="https://wordpress.com/theme/jackson/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C311" r:id="rId307" display="https://wordpress.com/theme/twentytwentytwo-swiss/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C312" r:id="rId308" display="https://wordpress.com/theme/arbutus/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C313" r:id="rId309" display="https://wordpress.com/theme/geologist-cream/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C314" r:id="rId310" display="https://wordpress.com/theme/russell/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C315" r:id="rId311" display="https://wordpress.com/theme/zoologist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C316" r:id="rId312" display="https://wordpress.com/theme/quadrat/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C317" r:id="rId313" display="https://wordpress.com/theme/geologist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId315"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId314"/>
 </worksheet>
 </file>
--- a/20250705wordpressテーマ一覧.xlsx
+++ b/20250705wordpressテーマ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmatsumoto33.IXAS\Box\エイ・エス・ティ\松本\個人メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CDE3C5-3E81-4D34-A123-B055DFEF7512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3058B93B-18F4-4680-AE40-8B068EB78DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="323">
-  <si>
-    <t>Essentialist</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="324">
   <si>
     <t>情報</t>
   </si>
@@ -1028,6 +1025,17 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Essentialist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情報</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1124,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1147,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1424,8 +1435,8 @@
   <dimension ref="A1:C318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C317" sqref="C317"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.6640625" defaultRowHeight="13.8"/>
@@ -1437,7 +1448,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1445,3464 +1456,3467 @@
     </row>
     <row r="3" spans="1:3" ht="13.2">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" t="s">
         <v>321</v>
-      </c>
-      <c r="C3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.4" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.4" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.4" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.4" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.4" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.4" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.4" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.4" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.4" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.4" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.4" thickBot="1">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.4" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.4" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.4" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.4" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.4" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.4" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.4" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.4" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.4" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.4" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.4" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.4" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.4" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.4" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.4" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.4" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.4" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.4" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.4" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.4" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.4" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.4" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.4" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.4" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.4" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.4" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.4" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.4" thickBot="1">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.4" thickBot="1">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.4" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.4" thickBot="1">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.4" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.4" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.4" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.4" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.4" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.4" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.4" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.4" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.4" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.4" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.4" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.4" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.4" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.4" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.4" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.4" thickBot="1">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.4" thickBot="1">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.4" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.4" thickBot="1">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.4" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.4" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.4" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.4" thickBot="1">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.4" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.4" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.4" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.4" thickBot="1">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.4" thickBot="1">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.4" thickBot="1">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.4" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.4" thickBot="1">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.4" thickBot="1">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.4" thickBot="1">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.4" thickBot="1">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.4" thickBot="1">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.4" thickBot="1">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.4" thickBot="1">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.4" thickBot="1">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.4" thickBot="1">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.4" thickBot="1">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.4" thickBot="1">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.4" thickBot="1">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.4" thickBot="1">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.4" thickBot="1">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.4" thickBot="1">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.4" thickBot="1">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.4" thickBot="1">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.4" thickBot="1">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.4" thickBot="1">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.4" thickBot="1">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.4" thickBot="1">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.4" thickBot="1">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.4" thickBot="1">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.4" thickBot="1">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.4" thickBot="1">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.4" thickBot="1">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.4" thickBot="1">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.4" thickBot="1">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.4" thickBot="1">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.4" thickBot="1">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.4" thickBot="1">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.4" thickBot="1">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.4" thickBot="1">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.4" thickBot="1">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.4" thickBot="1">
       <c r="A120" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.4" thickBot="1">
       <c r="A121" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.4" thickBot="1">
       <c r="A122" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.4" thickBot="1">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.4" thickBot="1">
       <c r="A124" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.4" thickBot="1">
       <c r="A125" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.4" thickBot="1">
       <c r="A126" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.4" thickBot="1">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.4" thickBot="1">
       <c r="A128" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.4" thickBot="1">
       <c r="A129" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.4" thickBot="1">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.4" thickBot="1">
       <c r="A131" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.4" thickBot="1">
       <c r="A132" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.4" thickBot="1">
       <c r="A133" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.4" thickBot="1">
       <c r="A134" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.4" thickBot="1">
       <c r="A135" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.4" thickBot="1">
       <c r="A136" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.4" thickBot="1">
       <c r="A137" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.4" thickBot="1">
       <c r="A138" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.4" thickBot="1">
       <c r="A139" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.4" thickBot="1">
       <c r="A140" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.4" thickBot="1">
       <c r="A141" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.4" thickBot="1">
       <c r="A142" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.4" thickBot="1">
       <c r="A143" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.4" thickBot="1">
       <c r="A144" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.4" thickBot="1">
       <c r="A145" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.4" thickBot="1">
       <c r="A146" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.4" thickBot="1">
       <c r="A147" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.4" thickBot="1">
       <c r="A148" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.4" thickBot="1">
       <c r="A149" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.4" thickBot="1">
       <c r="A150" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.4" thickBot="1">
       <c r="A151" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.4" thickBot="1">
       <c r="A152" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.4" thickBot="1">
       <c r="A153" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.4" thickBot="1">
       <c r="A154" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.4" thickBot="1">
       <c r="A155" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.4" thickBot="1">
       <c r="A156" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.4" thickBot="1">
       <c r="A157" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.4" thickBot="1">
       <c r="A158" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.4" thickBot="1">
       <c r="A159" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.4" thickBot="1">
       <c r="A160" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.4" thickBot="1">
       <c r="A161" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.4" thickBot="1">
       <c r="A162" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.4" thickBot="1">
       <c r="A163" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.4" thickBot="1">
       <c r="A164" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.4" thickBot="1">
       <c r="A165" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.4" thickBot="1">
       <c r="A166" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.4" thickBot="1">
       <c r="A167" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.4" thickBot="1">
       <c r="A168" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.4" thickBot="1">
       <c r="A169" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.4" thickBot="1">
       <c r="A170" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.4" thickBot="1">
       <c r="A171" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.4" thickBot="1">
       <c r="A172" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.4" thickBot="1">
       <c r="A173" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.4" thickBot="1">
       <c r="A174" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.4" thickBot="1">
       <c r="A175" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.4" thickBot="1">
       <c r="A176" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.4" thickBot="1">
       <c r="A177" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.4" thickBot="1">
       <c r="A178" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.4" thickBot="1">
       <c r="A179" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.4" thickBot="1">
       <c r="A180" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.4" thickBot="1">
       <c r="A181" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.4" thickBot="1">
       <c r="A182" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.4" thickBot="1">
       <c r="A183" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.4" thickBot="1">
       <c r="A184" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.4" thickBot="1">
       <c r="A185" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.4" thickBot="1">
       <c r="A186" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.4" thickBot="1">
       <c r="A187" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.4" thickBot="1">
       <c r="A188" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.4" thickBot="1">
       <c r="A189" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.4" thickBot="1">
       <c r="A190" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.4" thickBot="1">
       <c r="A191" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.4" thickBot="1">
       <c r="A192" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.4" thickBot="1">
       <c r="A193" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.4" thickBot="1">
       <c r="A194" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.4" thickBot="1">
       <c r="A195" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.4" thickBot="1">
       <c r="A196" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.4" thickBot="1">
       <c r="A197" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.4" thickBot="1">
       <c r="A198" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.4" thickBot="1">
       <c r="A199" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.4" thickBot="1">
       <c r="A200" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.4" thickBot="1">
       <c r="A201" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.4" thickBot="1">
       <c r="A202" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.4" thickBot="1">
       <c r="A203" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.4" thickBot="1">
       <c r="A204" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.4" thickBot="1">
       <c r="A205" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.4" thickBot="1">
       <c r="A206" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.4" thickBot="1">
       <c r="A207" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.4" thickBot="1">
       <c r="A208" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.4" thickBot="1">
       <c r="A209" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.4" thickBot="1">
       <c r="A210" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.4" thickBot="1">
       <c r="A211" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.4" thickBot="1">
       <c r="A212" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.4" thickBot="1">
       <c r="A213" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.4" thickBot="1">
       <c r="A214" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.4" thickBot="1">
       <c r="A215" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.4" thickBot="1">
       <c r="A216" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.4" thickBot="1">
       <c r="A217" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.4" thickBot="1">
       <c r="A218" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.4" thickBot="1">
       <c r="A219" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.4" thickBot="1">
       <c r="A220" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.4" thickBot="1">
       <c r="A221" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.4" thickBot="1">
       <c r="A222" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.4" thickBot="1">
       <c r="A223" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.4" thickBot="1">
       <c r="A224" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.4" thickBot="1">
       <c r="A225" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.4" thickBot="1">
       <c r="A226" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.4" thickBot="1">
       <c r="A227" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.4" thickBot="1">
       <c r="A228" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.4" thickBot="1">
       <c r="A229" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.4" thickBot="1">
       <c r="A230" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.4" thickBot="1">
       <c r="A231" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.4" thickBot="1">
       <c r="A232" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.4" thickBot="1">
       <c r="A233" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.4" thickBot="1">
       <c r="A234" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.4" thickBot="1">
       <c r="A235" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.4" thickBot="1">
       <c r="A236" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.4" thickBot="1">
       <c r="A237" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.4" thickBot="1">
       <c r="A238" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.4" thickBot="1">
       <c r="A239" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.4" thickBot="1">
       <c r="A240" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.4" thickBot="1">
       <c r="A241" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.4" thickBot="1">
       <c r="A242" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.4" thickBot="1">
       <c r="A243" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.4" thickBot="1">
       <c r="A244" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.4" thickBot="1">
       <c r="A245" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.4" thickBot="1">
       <c r="A246" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.4" thickBot="1">
       <c r="A247" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.4" thickBot="1">
       <c r="A248" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.4" thickBot="1">
       <c r="A249" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.4" thickBot="1">
       <c r="A250" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.4" thickBot="1">
       <c r="A251" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.4" thickBot="1">
       <c r="A252" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.4" thickBot="1">
       <c r="A253" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.4" thickBot="1">
       <c r="A254" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.4" thickBot="1">
       <c r="A255" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.4" thickBot="1">
       <c r="A256" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.4" thickBot="1">
       <c r="A257" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.4" thickBot="1">
       <c r="A258" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.4" thickBot="1">
       <c r="A259" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.4" thickBot="1">
       <c r="A260" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.4" thickBot="1">
       <c r="A261" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.4" thickBot="1">
       <c r="A262" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.4" thickBot="1">
       <c r="A263" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.4" thickBot="1">
       <c r="A264" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.4" thickBot="1">
       <c r="A265" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.4" thickBot="1">
       <c r="A266" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.4" thickBot="1">
       <c r="A267" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.4" thickBot="1">
       <c r="A268" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.4" thickBot="1">
       <c r="A269" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.4" thickBot="1">
       <c r="A270" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.4" thickBot="1">
       <c r="A271" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14.4" thickBot="1">
       <c r="A272" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14.4" thickBot="1">
       <c r="A273" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14.4" thickBot="1">
       <c r="A274" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.4" thickBot="1">
       <c r="A275" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14.4" thickBot="1">
       <c r="A276" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14.4" thickBot="1">
       <c r="A277" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14.4" thickBot="1">
       <c r="A278" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.4" thickBot="1">
       <c r="A279" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.4" thickBot="1">
       <c r="A280" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14.4" thickBot="1">
       <c r="A281" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14.4" thickBot="1">
       <c r="A282" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.4" thickBot="1">
       <c r="A283" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14.4" thickBot="1">
       <c r="A284" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14.4" thickBot="1">
       <c r="A285" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="14.4" thickBot="1">
       <c r="A286" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="14.4" thickBot="1">
       <c r="A287" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="14.4" thickBot="1">
       <c r="A288" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="14.4" thickBot="1">
       <c r="A289" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="14.4" thickBot="1">
       <c r="A290" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="14.4" thickBot="1">
       <c r="A291" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="14.4" thickBot="1">
       <c r="A292" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="14.4" thickBot="1">
       <c r="A293" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="14.4" thickBot="1">
       <c r="A294" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="14.4" thickBot="1">
       <c r="A295" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="14.4" thickBot="1">
       <c r="A296" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="14.4" thickBot="1">
       <c r="A297" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="14.4" thickBot="1">
       <c r="A298" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="14.4" thickBot="1">
       <c r="A299" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="14.4" thickBot="1">
       <c r="A300" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="14.4" thickBot="1">
       <c r="A301" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="14.4" thickBot="1">
       <c r="A302" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="14.4" thickBot="1">
       <c r="A303" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="14.4" thickBot="1">
       <c r="A304" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="14.4" thickBot="1">
       <c r="A305" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="14.4" thickBot="1">
       <c r="A306" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="14.4" thickBot="1">
       <c r="A307" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="14.4" thickBot="1">
       <c r="A308" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="14.4" thickBot="1">
       <c r="A309" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="14.4" thickBot="1">
       <c r="A310" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="14.4" thickBot="1">
       <c r="A311" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="14.4" thickBot="1">
       <c r="A312" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="14.4" thickBot="1">
       <c r="A313" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="14.4" thickBot="1">
       <c r="A314" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="14.4" thickBot="1">
       <c r="A315" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="14.4" thickBot="1">
       <c r="A316" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="14.4" thickBot="1">
       <c r="A317" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5225,8 +5239,9 @@
     <hyperlink ref="C315" r:id="rId311" display="https://wordpress.com/theme/zoologist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
     <hyperlink ref="C316" r:id="rId312" display="https://wordpress.com/theme/quadrat/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
     <hyperlink ref="C317" r:id="rId313" display="https://wordpress.com/theme/geologist/tayorerubakadesuyo.wordpress.com?tab_filter=all" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C4" r:id="rId314" xr:uid="{C0C8BCC1-1BBD-4F90-B47B-12EC17FB3F52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId314"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId315"/>
 </worksheet>
 </file>